--- a/trunk/plan/Szablon zapytania ofertowego - ekipa budowlana.xlsx
+++ b/trunk/plan/Szablon zapytania ofertowego - ekipa budowlana.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Dotychczasowe realizacje</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Jak rozwiązuja problem dostępu do wody/prądu?</t>
   </si>
   <si>
-    <t>Czy maja własnego kierownika budowy</t>
-  </si>
-  <si>
     <t>Ile zatrudnia własnych pracowników (i od czego są fachowcami)</t>
   </si>
   <si>
@@ -202,6 +199,12 @@
   </si>
   <si>
     <t>Instalacja gazowa</t>
+  </si>
+  <si>
+    <t>Jak sie ekipa zapatruje na bieżące zmiany od inwestora: np umiejscowienie ścianek działowych, podniesienie scianki kolankowej, zrobienie otworów okiennych 'pod wymiar'</t>
+  </si>
+  <si>
+    <t>Czy maja własnego kierownika budowy? Osobę kontaktową, odpowiedzialną za zespół i projekt.</t>
   </si>
 </sst>
 </file>
@@ -245,20 +248,16 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -384,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -397,9 +396,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -628,8 +624,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:G32" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="A1:G32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:G33" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="A1:G33">
     <filterColumn colId="5"/>
     <filterColumn colId="6"/>
   </autoFilter>
@@ -931,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -947,30 +943,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="12" t="s">
-        <v>45</v>
+      <c r="A2" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -980,8 +976,8 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="21">
-      <c r="A3" s="12" t="s">
-        <v>46</v>
+      <c r="A3" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -991,7 +987,7 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1"/>
@@ -1013,8 +1009,8 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="12" t="s">
-        <v>16</v>
+      <c r="A6" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1025,7 +1021,7 @@
     </row>
     <row r="7" spans="1:7" ht="31.5">
       <c r="A7" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1047,7 +1043,7 @@
     </row>
     <row r="9" spans="1:7" ht="31.5">
       <c r="A9" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1057,8 +1053,8 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="42">
-      <c r="A10" s="12" t="s">
-        <v>49</v>
+      <c r="A10" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1069,7 +1065,7 @@
     </row>
     <row r="11" spans="1:7" ht="31.5">
       <c r="A11" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1080,7 +1076,7 @@
     </row>
     <row r="12" spans="1:7" ht="21">
       <c r="A12" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1090,8 +1086,8 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="21">
-      <c r="A13" s="12" t="s">
-        <v>6</v>
+      <c r="A13" s="11" t="s">
+        <v>5</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1101,8 +1097,8 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="31.5">
-      <c r="A14" s="12" t="s">
-        <v>53</v>
+      <c r="A14" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1111,9 +1107,9 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>5</v>
+    <row r="15" spans="1:7" ht="31.5">
+      <c r="A15" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1124,7 +1120,7 @@
     </row>
     <row r="16" spans="1:7" ht="21">
       <c r="A16" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1134,8 +1130,8 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="12" t="s">
-        <v>8</v>
+      <c r="A17" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1144,9 +1140,9 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" ht="21">
-      <c r="A18" s="12" t="s">
-        <v>4</v>
+    <row r="18" spans="1:7" ht="52.5">
+      <c r="A18" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1156,8 +1152,8 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="21">
-      <c r="A19" s="12" t="s">
-        <v>52</v>
+      <c r="A19" s="11" t="s">
+        <v>4</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1166,9 +1162,9 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="21">
       <c r="A20" s="11" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1179,7 +1175,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="11" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1188,9 +1184,9 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="21">
-      <c r="A22" s="12" t="s">
-        <v>55</v>
+    <row r="22" spans="1:7">
+      <c r="A22" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1199,9 +1195,9 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="21">
       <c r="A23" s="11" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1211,7 +1207,9 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="13"/>
+      <c r="A24" s="11" t="s">
+        <v>3</v>
+      </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1220,7 +1218,7 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="13"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1229,7 +1227,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="13"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1238,7 +1236,7 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="13"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1247,7 +1245,7 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="6"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1283,13 +1281,22 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="7"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="7"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1317,23 +1324,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="A1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
       <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1"/>
-      <c r="B2" s="14" t="s">
-        <v>18</v>
+      <c r="B2" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1344,7 +1351,7 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1354,7 +1361,7 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1364,7 +1371,7 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1374,7 +1381,7 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1382,8 +1389,8 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1"/>
-      <c r="B7" s="14" t="s">
-        <v>24</v>
+      <c r="B7" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1394,7 +1401,7 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1404,7 +1411,7 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1414,7 +1421,7 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1422,8 +1429,8 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1"/>
-      <c r="B11" s="14" t="s">
-        <v>28</v>
+      <c r="B11" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1432,8 +1439,8 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1"/>
-      <c r="B12" s="14" t="s">
-        <v>29</v>
+      <c r="B12" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1444,7 +1451,7 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1454,15 +1461,15 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="14" t="s">
-        <v>32</v>
+      <c r="A15" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1472,8 +1479,8 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1"/>
-      <c r="B16" s="14" t="s">
-        <v>33</v>
+      <c r="B16" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1481,19 +1488,19 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="A17" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1"/>
-      <c r="B18" s="14" t="s">
-        <v>59</v>
+      <c r="B18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1502,8 +1509,8 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1"/>
-      <c r="B19" s="14" t="s">
-        <v>60</v>
+      <c r="B19" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1512,8 +1519,8 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1"/>
-      <c r="B20" s="14" t="s">
-        <v>61</v>
+      <c r="B20" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1521,8 +1528,8 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="14" t="s">
-        <v>34</v>
+      <c r="A21" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1532,8 +1539,8 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1"/>
-      <c r="B22" s="14" t="s">
-        <v>35</v>
+      <c r="B22" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1542,8 +1549,8 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1"/>
-      <c r="B23" s="14" t="s">
-        <v>36</v>
+      <c r="B23" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1552,8 +1559,8 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1"/>
-      <c r="B24" s="14" t="s">
-        <v>37</v>
+      <c r="B24" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1562,8 +1569,8 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1"/>
-      <c r="B25" s="14" t="s">
-        <v>38</v>
+      <c r="B25" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1572,8 +1579,8 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1"/>
-      <c r="B26" s="14" t="s">
-        <v>39</v>
+      <c r="B26" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1582,8 +1589,8 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1"/>
-      <c r="B27" s="14" t="s">
-        <v>40</v>
+      <c r="B27" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1592,8 +1599,8 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1"/>
-      <c r="B28" s="14" t="s">
-        <v>41</v>
+      <c r="B28" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1602,8 +1609,8 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1"/>
-      <c r="B29" s="14" t="s">
-        <v>42</v>
+      <c r="B29" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1612,8 +1619,8 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1"/>
-      <c r="B30" s="14" t="s">
-        <v>43</v>
+      <c r="B30" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1622,8 +1629,8 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1"/>
-      <c r="B31" s="14" t="s">
-        <v>44</v>
+      <c r="B31" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>

--- a/trunk/plan/Szablon zapytania ofertowego - ekipa budowlana.xlsx
+++ b/trunk/plan/Szablon zapytania ofertowego - ekipa budowlana.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
   <si>
     <t>Dotychczasowe realizacje</t>
   </si>
@@ -205,13 +205,16 @@
   </si>
   <si>
     <t>Czy maja własnego kierownika budowy? Osobę kontaktową, odpowiedzialną za zespół i projekt.</t>
+  </si>
+  <si>
+    <t>Uwagi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,6 +254,23 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -383,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -402,6 +422,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -929,14 +955,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection sqref="A1:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.5703125" style="8" customWidth="1"/>
-    <col min="2" max="5" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="5" width="11.85546875" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" customWidth="1"/>
   </cols>
@@ -1311,8 +1338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1321,6 +1348,8 @@
     <col min="2" max="2" width="3.85546875" customWidth="1"/>
     <col min="3" max="3" width="27.85546875" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1335,7 +1364,9 @@
       <c r="E1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1"/>
@@ -1648,13 +1679,166 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="34" customWidth="1"/>
+    <col min="2" max="2" width="49.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="23.25" customHeight="1">
+      <c r="A2" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="18"/>
+    </row>
+    <row r="3" spans="1:2" ht="31.5" customHeight="1">
+      <c r="A3" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="18"/>
+    </row>
+    <row r="4" spans="1:2" ht="23.25" customHeight="1">
+      <c r="A4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="18"/>
+    </row>
+    <row r="5" spans="1:2" ht="25.5" customHeight="1">
+      <c r="A5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="18"/>
+    </row>
+    <row r="6" spans="1:2" ht="20.25" customHeight="1">
+      <c r="A6" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="18"/>
+    </row>
+    <row r="7" spans="1:2" ht="38.25" customHeight="1">
+      <c r="A7" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="18"/>
+    </row>
+    <row r="8" spans="1:2" ht="30" customHeight="1">
+      <c r="A8" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="18"/>
+    </row>
+    <row r="9" spans="1:2" ht="31.5">
+      <c r="A9" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="18"/>
+    </row>
+    <row r="10" spans="1:2" ht="42">
+      <c r="A10" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="18"/>
+    </row>
+    <row r="11" spans="1:2" ht="42">
+      <c r="A11" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="18"/>
+    </row>
+    <row r="12" spans="1:2" ht="31.5">
+      <c r="A12" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="18"/>
+    </row>
+    <row r="13" spans="1:2" ht="21">
+      <c r="A13" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="18"/>
+    </row>
+    <row r="14" spans="1:2" ht="31.5">
+      <c r="A14" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="18"/>
+    </row>
+    <row r="15" spans="1:2" ht="36" customHeight="1">
+      <c r="A15" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="18"/>
+    </row>
+    <row r="16" spans="1:2" ht="36.75" customHeight="1">
+      <c r="A16" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="18"/>
+    </row>
+    <row r="17" spans="1:2" ht="32.25" customHeight="1">
+      <c r="A17" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="18"/>
+    </row>
+    <row r="18" spans="1:2" ht="63">
+      <c r="A18" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="18"/>
+    </row>
+    <row r="19" spans="1:2" ht="30.75" customHeight="1">
+      <c r="A19" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="18"/>
+    </row>
+    <row r="20" spans="1:2" ht="30" customHeight="1">
+      <c r="A20" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="18"/>
+    </row>
+    <row r="21" spans="1:2" ht="27" customHeight="1">
+      <c r="A21" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="18"/>
+    </row>
+    <row r="22" spans="1:2" ht="27" customHeight="1">
+      <c r="A22" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="18"/>
+    </row>
+    <row r="23" spans="1:2" ht="27.75" customHeight="1">
+      <c r="A23" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="18"/>
+    </row>
+    <row r="24" spans="1:2" ht="23.25" customHeight="1">
+      <c r="A24" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="18"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/trunk/plan/Szablon zapytania ofertowego - ekipa budowlana.xlsx
+++ b/trunk/plan/Szablon zapytania ofertowego - ekipa budowlana.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="95">
   <si>
     <t>Dotychczasowe realizacje</t>
   </si>
@@ -48,15 +48,6 @@
     <t>Ekipa1</t>
   </si>
   <si>
-    <t>Ekipa2</t>
-  </si>
-  <si>
-    <t>Ekipa3</t>
-  </si>
-  <si>
-    <t>Ekipa4</t>
-  </si>
-  <si>
     <t>Ekipa5</t>
   </si>
   <si>
@@ -208,6 +199,113 @@
   </si>
   <si>
     <t>Uwagi</t>
+  </si>
+  <si>
+    <t>Nowak</t>
+  </si>
+  <si>
+    <t>Jest na razie dostępny</t>
+  </si>
+  <si>
+    <t>Własny dom (sprzed 10 lat)</t>
+  </si>
+  <si>
+    <t>ok. 3 miesiące do zakończenia dachu</t>
+  </si>
+  <si>
+    <t>zakup własny</t>
+  </si>
+  <si>
+    <t>zna Ytonga</t>
+  </si>
+  <si>
+    <t>6 osób</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nie  </t>
+  </si>
+  <si>
+    <t>nie mają kierownika budowy, osobą odpowiedzialną za kontak jest Nowak</t>
+  </si>
+  <si>
+    <t>tak</t>
+  </si>
+  <si>
+    <t>ogrodzenie działki po stronie inwestora</t>
+  </si>
+  <si>
+    <t>nie ma problemu, sugeruje, ze drobne zmiany w ramach pierwotnej wyceny</t>
+  </si>
+  <si>
+    <t>ma agregat, woda jest zamawiana</t>
+  </si>
+  <si>
+    <t>dostarczył</t>
+  </si>
+  <si>
+    <t>rozliczenie po etapach</t>
+  </si>
+  <si>
+    <t>Ogólne wrażenie</t>
+  </si>
+  <si>
+    <t>Siciński</t>
+  </si>
+  <si>
+    <t>Kontakt</t>
+  </si>
+  <si>
+    <t>brak, ale chętnie pokaże</t>
+  </si>
+  <si>
+    <t>zakup własny, zniżki wykonawcy</t>
+  </si>
+  <si>
+    <t>buduje raczej z ceramiki</t>
+  </si>
+  <si>
+    <t>ma zasadę aneksów do projektu, nie widzi przeszkód w zmianie otworów okiennych</t>
+  </si>
+  <si>
+    <t>nie sugeruje sam, robi to co inwestor chce
+poleca kostę brukową</t>
+  </si>
+  <si>
+    <t>poleca kostkę brukową</t>
+  </si>
+  <si>
+    <t>nie wygląda na speca od płyt fundamentowych, 
+sugeruje, ze WG jest niezbędna przy kominku
+nie robi dachu</t>
+  </si>
+  <si>
+    <t>nie robi dachu</t>
+  </si>
+  <si>
+    <t>ma agregat, wodę sugeruje pobierać z hydrantu</t>
+  </si>
+  <si>
+    <t>zdjęcie humusu - inwestor
+ - geodeta - inwestor
+pozostałe - wykonawca</t>
+  </si>
+  <si>
+    <t>ok..5 miesięcy (niestety nie pamiętam czy z dachem, którego nie robi, czy bez dachu)</t>
+  </si>
+  <si>
+    <t>TZI-Team</t>
+  </si>
+  <si>
+    <t>wygląda na godnego zaufania, ma dobrą motywację do tej roboty</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -248,13 +346,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color theme="0"/>
@@ -270,6 +361,13 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -403,37 +501,67 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Tahoma"/>
+        <scheme val="none"/>
+      </font>
+      <alignment textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -447,15 +575,21 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Tahoma"/>
+        <scheme val="none"/>
+      </font>
+      <alignment textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -469,15 +603,21 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Tahoma"/>
+        <scheme val="none"/>
+      </font>
+      <alignment textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -489,15 +629,21 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Tahoma"/>
+        <scheme val="none"/>
+      </font>
+      <alignment textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -511,15 +657,21 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Tahoma"/>
+        <scheme val="none"/>
+      </font>
+      <alignment textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -533,15 +685,21 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Tahoma"/>
+        <scheme val="none"/>
+      </font>
+      <alignment textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -555,12 +713,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -574,11 +726,12 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="9"/>
+        <sz val="8"/>
         <color theme="1"/>
         <name val="Tahoma"/>
         <scheme val="none"/>
       </font>
+      <alignment textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -616,6 +769,20 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Tahoma"/>
+        <scheme val="none"/>
+      </font>
+      <alignment textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -650,17 +817,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:G33" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:G33" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="A1:G33">
     <filterColumn colId="5"/>
     <filterColumn colId="6"/>
   </autoFilter>
   <tableColumns count="7">
     <tableColumn id="1" name="Warunek" dataDxfId="6"/>
-    <tableColumn id="2" name="Ekipa1" dataDxfId="5"/>
-    <tableColumn id="3" name="Ekipa2" dataDxfId="4"/>
-    <tableColumn id="4" name="Ekipa3" dataDxfId="3"/>
-    <tableColumn id="5" name="Ekipa4" dataDxfId="2"/>
+    <tableColumn id="2" name="N" dataDxfId="5"/>
+    <tableColumn id="3" name="S" dataDxfId="4"/>
+    <tableColumn id="4" name="M" dataDxfId="3"/>
+    <tableColumn id="5" name="TZI-Team" dataDxfId="2"/>
     <tableColumn id="6" name="Ekipa5" dataDxfId="1"/>
     <tableColumn id="7" name="Ekipa6" dataDxfId="0"/>
   </tableColumns>
@@ -953,377 +1120,449 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection sqref="A1:B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="36.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="3" max="5" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="5" width="11.85546875" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="10" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" ht="21">
+      <c r="A3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:7" ht="43.5">
+      <c r="A7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" ht="22.5">
+      <c r="A8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" ht="31.5">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" ht="42">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" ht="31.5">
+      <c r="A11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" ht="21">
+      <c r="A12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:7" ht="21">
+      <c r="A13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" ht="31.5">
+      <c r="A14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" ht="31.5">
+      <c r="A15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:7" ht="21">
+      <c r="A16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" ht="43.5">
+      <c r="A17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:7" ht="52.5">
+      <c r="A18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" ht="33">
+      <c r="A19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:7" ht="21">
+      <c r="A20" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="21">
-      <c r="A3" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="31.5">
-      <c r="A7" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="21">
-      <c r="A8" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="31.5">
-      <c r="A9" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" ht="42">
-      <c r="A10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="31.5">
-      <c r="A11" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" ht="21">
-      <c r="A12" s="11" t="s">
+      <c r="B21" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" ht="21">
-      <c r="A13" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" ht="31.5">
-      <c r="A14" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="31.5">
-      <c r="A15" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" ht="21">
-      <c r="A16" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" ht="52.5">
-      <c r="A18" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" ht="21">
-      <c r="A19" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" ht="21">
-      <c r="A20" s="11" t="s">
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="1:7" ht="21">
+      <c r="A23" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" ht="21">
-      <c r="A23" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="12"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="1:7" ht="64.5">
+      <c r="A25" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="12"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="A26" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="12"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="12"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="6"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="6"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="6"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="6"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="7"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1353,25 +1592,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="A1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1"/>
-      <c r="B2" s="13" t="s">
-        <v>17</v>
+      <c r="B2" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1382,7 +1621,7 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1392,7 +1631,7 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1402,7 +1641,7 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1412,7 +1651,7 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1420,8 +1659,8 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1"/>
-      <c r="B7" s="13" t="s">
-        <v>23</v>
+      <c r="B7" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1432,7 +1671,7 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1442,7 +1681,7 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1452,7 +1691,7 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1460,8 +1699,8 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1"/>
-      <c r="B11" s="13" t="s">
-        <v>27</v>
+      <c r="B11" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1470,8 +1709,8 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1"/>
-      <c r="B12" s="13" t="s">
-        <v>28</v>
+      <c r="B12" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1482,7 +1721,7 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1492,15 +1731,15 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="13" t="s">
-        <v>31</v>
+      <c r="A15" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1510,8 +1749,8 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1"/>
-      <c r="B16" s="13" t="s">
-        <v>32</v>
+      <c r="B16" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1519,19 +1758,19 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
+      <c r="A17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1"/>
-      <c r="B18" s="13" t="s">
-        <v>58</v>
+      <c r="B18" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1540,8 +1779,8 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1"/>
-      <c r="B19" s="13" t="s">
-        <v>59</v>
+      <c r="B19" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1550,8 +1789,8 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1"/>
-      <c r="B20" s="13" t="s">
-        <v>60</v>
+      <c r="B20" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1559,8 +1798,8 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="13" t="s">
-        <v>33</v>
+      <c r="A21" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1570,8 +1809,8 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1"/>
-      <c r="B22" s="13" t="s">
-        <v>34</v>
+      <c r="B22" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1580,8 +1819,8 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1"/>
-      <c r="B23" s="13" t="s">
-        <v>35</v>
+      <c r="B23" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1590,8 +1829,8 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1"/>
-      <c r="B24" s="13" t="s">
-        <v>36</v>
+      <c r="B24" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1600,8 +1839,8 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1"/>
-      <c r="B25" s="13" t="s">
-        <v>37</v>
+      <c r="B25" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1610,8 +1849,8 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1"/>
-      <c r="B26" s="13" t="s">
-        <v>38</v>
+      <c r="B26" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1620,8 +1859,8 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1"/>
-      <c r="B27" s="13" t="s">
-        <v>39</v>
+      <c r="B27" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1630,8 +1869,8 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1"/>
-      <c r="B28" s="13" t="s">
-        <v>40</v>
+      <c r="B28" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1640,8 +1879,8 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1"/>
-      <c r="B29" s="13" t="s">
-        <v>41</v>
+      <c r="B29" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1650,8 +1889,8 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1"/>
-      <c r="B30" s="13" t="s">
-        <v>42</v>
+      <c r="B30" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1660,8 +1899,8 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1"/>
-      <c r="B31" s="13" t="s">
-        <v>43</v>
+      <c r="B31" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1692,150 +1931,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="23.25" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="10"/>
+    </row>
+    <row r="3" spans="1:2" ht="31.5" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="10"/>
+    </row>
+    <row r="4" spans="1:2" ht="23.25" customHeight="1">
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10"/>
+    </row>
+    <row r="5" spans="1:2" ht="25.5" customHeight="1">
+      <c r="A5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" spans="1:2" ht="20.25" customHeight="1">
+      <c r="A6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="10"/>
+    </row>
+    <row r="7" spans="1:2" ht="38.25" customHeight="1">
+      <c r="A7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="10"/>
+    </row>
+    <row r="8" spans="1:2" ht="30" customHeight="1">
+      <c r="A8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:2" ht="31.5">
+      <c r="A9" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="18"/>
-    </row>
-    <row r="3" spans="1:2" ht="31.5" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:2" ht="42">
+      <c r="A10" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="18"/>
-    </row>
-    <row r="4" spans="1:2" ht="23.25" customHeight="1">
-      <c r="A4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="18"/>
-    </row>
-    <row r="5" spans="1:2" ht="25.5" customHeight="1">
-      <c r="A5" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="18"/>
-    </row>
-    <row r="6" spans="1:2" ht="20.25" customHeight="1">
-      <c r="A6" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="18"/>
-    </row>
-    <row r="7" spans="1:2" ht="38.25" customHeight="1">
-      <c r="A7" s="19" t="s">
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:2" ht="31.5">
+      <c r="A11" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="18"/>
-    </row>
-    <row r="8" spans="1:2" ht="30" customHeight="1">
-      <c r="A8" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="18"/>
-    </row>
-    <row r="9" spans="1:2" ht="31.5">
-      <c r="A9" s="19" t="s">
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" spans="1:2" ht="21">
+      <c r="A12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="18"/>
-    </row>
-    <row r="10" spans="1:2" ht="42">
-      <c r="A10" s="19" t="s">
+      <c r="B12" s="10"/>
+    </row>
+    <row r="13" spans="1:2" ht="21">
+      <c r="A13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:2" ht="31.5">
+      <c r="A14" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="10"/>
+    </row>
+    <row r="15" spans="1:2" ht="36" customHeight="1">
+      <c r="A15" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:2" ht="36.75" customHeight="1">
+      <c r="A16" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:2" ht="32.25" customHeight="1">
+      <c r="A17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="1:2" ht="63">
+      <c r="A18" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:2" ht="30.75" customHeight="1">
+      <c r="A19" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="1:2" ht="30" customHeight="1">
+      <c r="A20" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="18"/>
-    </row>
-    <row r="11" spans="1:2" ht="42">
-      <c r="A11" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="18"/>
-    </row>
-    <row r="12" spans="1:2" ht="31.5">
-      <c r="A12" s="19" t="s">
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="1:2" ht="27" customHeight="1">
+      <c r="A21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" spans="1:2" ht="27" customHeight="1">
+      <c r="A22" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="18"/>
-    </row>
-    <row r="13" spans="1:2" ht="21">
-      <c r="A13" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="18"/>
-    </row>
-    <row r="14" spans="1:2" ht="31.5">
-      <c r="A14" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="18"/>
-    </row>
-    <row r="15" spans="1:2" ht="36" customHeight="1">
-      <c r="A15" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="18"/>
-    </row>
-    <row r="16" spans="1:2" ht="36.75" customHeight="1">
-      <c r="A16" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="18"/>
-    </row>
-    <row r="17" spans="1:2" ht="32.25" customHeight="1">
-      <c r="A17" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="18"/>
-    </row>
-    <row r="18" spans="1:2" ht="63">
-      <c r="A18" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="18"/>
-    </row>
-    <row r="19" spans="1:2" ht="30.75" customHeight="1">
-      <c r="A19" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="18"/>
-    </row>
-    <row r="20" spans="1:2" ht="30" customHeight="1">
-      <c r="A20" s="19" t="s">
+      <c r="B22" s="10"/>
+    </row>
+    <row r="23" spans="1:2" ht="27.75" customHeight="1">
+      <c r="A23" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="18"/>
-    </row>
-    <row r="21" spans="1:2" ht="27" customHeight="1">
-      <c r="A21" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="18"/>
-    </row>
-    <row r="22" spans="1:2" ht="27" customHeight="1">
-      <c r="A22" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="18"/>
-    </row>
-    <row r="23" spans="1:2" ht="27.75" customHeight="1">
-      <c r="A23" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="18"/>
+      <c r="B23" s="10"/>
     </row>
     <row r="24" spans="1:2" ht="23.25" customHeight="1">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="18"/>
+      <c r="B24" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
